--- a/Code/Results/Cases/Case_5_210/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_210/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.090177988594832</v>
+        <v>0.3692786862235664</v>
       </c>
       <c r="C2">
-        <v>0.1773379547709908</v>
+        <v>0.06750128626747198</v>
       </c>
       <c r="D2">
-        <v>0.05168449439561584</v>
+        <v>0.02643641156462451</v>
       </c>
       <c r="E2">
-        <v>1.383532550445011</v>
+        <v>0.4159123285805748</v>
       </c>
       <c r="F2">
-        <v>0.5450687678099442</v>
+        <v>0.709949118744241</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.170672924044283</v>
+        <v>0.3603870442761377</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.588286861067672</v>
+        <v>2.425853481379022</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9472307373586943</v>
+        <v>0.3267623426023647</v>
       </c>
       <c r="C3">
-        <v>0.1599092110028693</v>
+        <v>0.06179291441247869</v>
       </c>
       <c r="D3">
-        <v>0.04728767669340783</v>
+        <v>0.02481443763230118</v>
       </c>
       <c r="E3">
-        <v>1.18839034662885</v>
+        <v>0.3628992592812068</v>
       </c>
       <c r="F3">
-        <v>0.5112503398841071</v>
+        <v>0.7073304550515829</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.021451238526112</v>
+        <v>0.3148674128965183</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.527004014964206</v>
+        <v>2.431571157312817</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8597566364698253</v>
+        <v>0.3006692369606014</v>
       </c>
       <c r="C4">
-        <v>0.1492139293718679</v>
+        <v>0.05826342446459876</v>
       </c>
       <c r="D4">
-        <v>0.04457584564091377</v>
+        <v>0.02381009723379179</v>
       </c>
       <c r="E4">
-        <v>1.070720680900706</v>
+        <v>0.3304359795849052</v>
       </c>
       <c r="F4">
-        <v>0.4918063936874901</v>
+        <v>0.7062327119440397</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.9300430821374164</v>
+        <v>0.2868644905347253</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.493716962852943</v>
+        <v>2.436779632266507</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8241655912127896</v>
+        <v>0.2900395173022901</v>
       </c>
       <c r="C5">
-        <v>0.1448548836053476</v>
+        <v>0.05681901421840507</v>
       </c>
       <c r="D5">
-        <v>0.04346754495161775</v>
+        <v>0.02339872983098701</v>
       </c>
       <c r="E5">
-        <v>1.023228034671831</v>
+        <v>0.3172271342782267</v>
       </c>
       <c r="F5">
-        <v>0.4841926316125864</v>
+        <v>0.7059133797577957</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.892828115146898</v>
+        <v>0.2754399761406887</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.481174528039645</v>
+        <v>2.43932806415944</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8182585358702283</v>
+        <v>0.2882746793737851</v>
       </c>
       <c r="C6">
-        <v>0.1441309696683248</v>
+        <v>0.05657880328006115</v>
       </c>
       <c r="D6">
-        <v>0.04328331477402969</v>
+        <v>0.0233302972788465</v>
       </c>
       <c r="E6">
-        <v>1.015367362690085</v>
+        <v>0.3150349875119076</v>
       </c>
       <c r="F6">
-        <v>0.4829464578063778</v>
+        <v>0.7058680783579092</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.8866501483927038</v>
+        <v>0.2735421652579078</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.479151670006615</v>
+        <v>2.439776925921734</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8592764433124671</v>
+        <v>0.3005258664248061</v>
       </c>
       <c r="C7">
-        <v>0.1491551470302426</v>
+        <v>0.05824396932865739</v>
       </c>
       <c r="D7">
-        <v>0.04456091187959288</v>
+        <v>0.02380455781108282</v>
       </c>
       <c r="E7">
-        <v>1.070078424171228</v>
+        <v>0.3302577608487525</v>
       </c>
       <c r="F7">
-        <v>0.4917024859090731</v>
+        <v>0.7062278873820702</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.9295410725701174</v>
+        <v>0.2867104680245234</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.493543760202186</v>
+        <v>2.436812278036115</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.04081637319419</v>
+        <v>0.354616758735574</v>
       </c>
       <c r="C8">
-        <v>0.171325916910817</v>
+        <v>0.06553816001884627</v>
       </c>
       <c r="D8">
-        <v>0.05017090080018249</v>
+        <v>0.02587892582811691</v>
       </c>
       <c r="E8">
-        <v>1.315750339845749</v>
+        <v>0.3976143566367512</v>
       </c>
       <c r="F8">
-        <v>0.5331201906298872</v>
+        <v>0.7089401619904834</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.119164625695674</v>
+        <v>0.3447032443233979</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.566212497626225</v>
+        <v>2.427471956428946</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.400113579760358</v>
+        <v>0.4607732036890297</v>
       </c>
       <c r="C9">
-        <v>0.214959122268624</v>
+        <v>0.07964579805047833</v>
       </c>
       <c r="D9">
-        <v>0.06108371841121141</v>
+        <v>0.02987854830372783</v>
       </c>
       <c r="E9">
-        <v>1.818636572995317</v>
+        <v>0.5304715718472153</v>
       </c>
       <c r="F9">
-        <v>0.6259043675829972</v>
+        <v>0.7183200586844123</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.493683029743863</v>
+        <v>0.4579889468427041</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.746529387937585</v>
+        <v>2.422674350482225</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.667560529698363</v>
+        <v>0.5388102127713523</v>
       </c>
       <c r="C10">
-        <v>0.2472816510898639</v>
+        <v>0.08988985053686349</v>
       </c>
       <c r="D10">
-        <v>0.06906119344576922</v>
+        <v>0.03277412581027761</v>
       </c>
       <c r="E10">
-        <v>2.207355954901473</v>
+        <v>0.6286731617452972</v>
       </c>
       <c r="F10">
-        <v>0.702764360068258</v>
+        <v>0.7277079534868562</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.77195841299411</v>
+        <v>0.5409453036401999</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.907167000527267</v>
+        <v>2.42746075108019</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.790345013877868</v>
+        <v>0.5743197598488052</v>
       </c>
       <c r="C11">
-        <v>0.2620866110256372</v>
+        <v>0.09452372209362636</v>
       </c>
       <c r="D11">
-        <v>0.0726851722162678</v>
+        <v>0.03408180682868789</v>
       </c>
       <c r="E11">
-        <v>2.390014085200548</v>
+        <v>0.6735028481930954</v>
       </c>
       <c r="F11">
-        <v>0.7400218321189413</v>
+        <v>0.7325254296818002</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.899601012973505</v>
+        <v>0.5786236393822719</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.987622585369763</v>
+        <v>2.431458261238816</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.83703468654636</v>
+        <v>0.5877674948822857</v>
       </c>
       <c r="C12">
-        <v>0.2677114307984425</v>
+        <v>0.09627464524049856</v>
       </c>
       <c r="D12">
-        <v>0.07405707460435451</v>
+        <v>0.03457559308593261</v>
       </c>
       <c r="E12">
-        <v>2.460177519939677</v>
+        <v>0.6905033027698551</v>
       </c>
       <c r="F12">
-        <v>0.7544975123607998</v>
+        <v>0.7344286564716498</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.948121512383182</v>
+        <v>0.5928827030608659</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.019267809961178</v>
+        <v>2.433234931645643</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.826970054094232</v>
+        <v>0.5848712448264166</v>
       </c>
       <c r="C13">
-        <v>0.2664991346444054</v>
+        <v>0.09589772354327408</v>
       </c>
       <c r="D13">
-        <v>0.07376162436906242</v>
+        <v>0.03446931036066303</v>
       </c>
       <c r="E13">
-        <v>2.445019607939599</v>
+        <v>0.6868408354261533</v>
       </c>
       <c r="F13">
-        <v>0.7513629557299168</v>
+        <v>0.7340152460770497</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.937662955038746</v>
+        <v>0.5898121613913361</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.012398039735189</v>
+        <v>2.432840582747644</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.794182117812369</v>
+        <v>0.5754260946170007</v>
       </c>
       <c r="C14">
-        <v>0.262548973311155</v>
+        <v>0.09466784853978538</v>
       </c>
       <c r="D14">
-        <v>0.07279804601144946</v>
+        <v>0.03412245925356672</v>
       </c>
       <c r="E14">
-        <v>2.395765565060017</v>
+        <v>0.6749009858912558</v>
       </c>
       <c r="F14">
-        <v>0.7412051712878025</v>
+        <v>0.7326804251625276</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.903588911308702</v>
+        <v>0.579796922035996</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.990201725859833</v>
+        <v>2.431599153391147</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.774124828747546</v>
+        <v>0.5696407906201557</v>
       </c>
       <c r="C15">
-        <v>0.2601319197408998</v>
+        <v>0.09391401501758878</v>
       </c>
       <c r="D15">
-        <v>0.07220778132954564</v>
+        <v>0.03390981908312796</v>
       </c>
       <c r="E15">
-        <v>2.365730592205807</v>
+        <v>0.6675907181106595</v>
       </c>
       <c r="F15">
-        <v>0.7350322100736122</v>
+        <v>0.7318731001349192</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.882742723875452</v>
+        <v>0.5736611264519524</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.976762989560257</v>
+        <v>2.430873014034717</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.659561554011248</v>
+        <v>0.5364897484143967</v>
       </c>
       <c r="C16">
-        <v>0.2463164766390946</v>
+        <v>0.08958648412581738</v>
       </c>
       <c r="D16">
-        <v>0.06882428197514656</v>
+        <v>0.03268847110454232</v>
       </c>
       <c r="E16">
-        <v>2.195549026699467</v>
+        <v>0.6257467554810603</v>
       </c>
       <c r="F16">
-        <v>0.7003787516725311</v>
+        <v>0.7274041513733636</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.763640657592106</v>
+        <v>0.5384817130795625</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.902067301679693</v>
+        <v>2.427236229955895</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.589590117687379</v>
+        <v>0.5161549529779563</v>
       </c>
       <c r="C17">
-        <v>0.237869753195838</v>
+        <v>0.0869249336540463</v>
       </c>
       <c r="D17">
-        <v>0.06674753393918564</v>
+        <v>0.03193674841050864</v>
       </c>
       <c r="E17">
-        <v>2.092746072251515</v>
+        <v>0.6001184060109495</v>
       </c>
       <c r="F17">
-        <v>0.6797327904521211</v>
+        <v>0.7248028866342366</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.690868047767822</v>
+        <v>0.5168848815783917</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.858213982832098</v>
+        <v>2.425472192731064</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.54944782729649</v>
+        <v>0.5044598935531042</v>
       </c>
       <c r="C18">
-        <v>0.2330206931137155</v>
+        <v>0.08539161750438495</v>
       </c>
       <c r="D18">
-        <v>0.0655525513298798</v>
+        <v>0.03150348220756172</v>
       </c>
       <c r="E18">
-        <v>2.034154566969931</v>
+        <v>0.5853923531771414</v>
       </c>
       <c r="F18">
-        <v>0.6680712153949599</v>
+        <v>0.7233581637361084</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.649108150543839</v>
+        <v>0.5044574342174997</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.833677753979146</v>
+        <v>2.424628816657815</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.535873161203114</v>
+        <v>0.500500327919184</v>
       </c>
       <c r="C19">
-        <v>0.2313803643478707</v>
+        <v>0.08487204175072804</v>
       </c>
       <c r="D19">
-        <v>0.06514785761751085</v>
+        <v>0.03135663299388369</v>
       </c>
       <c r="E19">
-        <v>2.01440444557204</v>
+        <v>0.5804088339548485</v>
       </c>
       <c r="F19">
-        <v>0.664158386858702</v>
+        <v>0.7228778334412453</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.634984658675506</v>
+        <v>0.5002487790344503</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.82548482900205</v>
+        <v>2.424372641221396</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.597027766341029</v>
+        <v>0.5183195285642057</v>
       </c>
       <c r="C20">
-        <v>0.2387679346221461</v>
+        <v>0.0872085155361475</v>
       </c>
       <c r="D20">
-        <v>0.06696865616731884</v>
+        <v>0.0320168634676179</v>
       </c>
       <c r="E20">
-        <v>2.103632866304196</v>
+        <v>0.6028450535715848</v>
       </c>
       <c r="F20">
-        <v>0.6819082399824623</v>
+        <v>0.7250744679569721</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.698604547236215</v>
+        <v>0.5191844757123363</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.862810326463261</v>
+        <v>2.425642245181791</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.803807192246751</v>
+        <v>0.5782003392402828</v>
       </c>
       <c r="C21">
-        <v>0.2637086956133317</v>
+        <v>0.09502919684963729</v>
       </c>
       <c r="D21">
-        <v>0.07308108114666112</v>
+        <v>0.03422437620510976</v>
       </c>
       <c r="E21">
-        <v>2.410204321721864</v>
+        <v>0.6784073317457597</v>
       </c>
       <c r="F21">
-        <v>0.7441784805873795</v>
+        <v>0.7330703491592914</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.913591978266368</v>
+        <v>0.5827388856738764</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.996688345919694</v>
+        <v>2.431956646954205</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.94009700777363</v>
+        <v>0.6173417845361655</v>
       </c>
       <c r="C22">
-        <v>0.280118943647679</v>
+        <v>0.1001181529369148</v>
       </c>
       <c r="D22">
-        <v>0.07707362347743185</v>
+        <v>0.03565891356750939</v>
       </c>
       <c r="E22">
-        <v>2.616453039377689</v>
+        <v>0.7279348686650167</v>
       </c>
       <c r="F22">
-        <v>0.7870354071284993</v>
+        <v>0.7387564645732709</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.055195263024331</v>
+        <v>0.6242232693229539</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.09111750319255</v>
+        <v>2.437616399496335</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.867239921487169</v>
+        <v>0.5964508569768157</v>
       </c>
       <c r="C23">
-        <v>0.2713489941926639</v>
+        <v>0.09740414103174544</v>
       </c>
       <c r="D23">
-        <v>0.07494282826960585</v>
+        <v>0.03489403523903434</v>
       </c>
       <c r="E23">
-        <v>2.505778239244748</v>
+        <v>0.7014873838633804</v>
       </c>
       <c r="F23">
-        <v>0.7639509282682155</v>
+        <v>0.7356794526076555</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.979506585772413</v>
+        <v>0.6020871807872368</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.040042695033748</v>
+        <v>2.434455034505817</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.593664942363347</v>
+        <v>0.5173409373524294</v>
       </c>
       <c r="C24">
-        <v>0.2383618450582787</v>
+        <v>0.08708031799307037</v>
       </c>
       <c r="D24">
-        <v>0.06686869004634843</v>
+        <v>0.03198064684463731</v>
       </c>
       <c r="E24">
-        <v>2.098709365759177</v>
+        <v>0.6016123113793128</v>
       </c>
       <c r="F24">
-        <v>0.6809240739524824</v>
+        <v>0.724951527886347</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.695106635219389</v>
+        <v>0.5181448638791721</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.86073022378082</v>
+        <v>2.425564832524003</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.302418062370151</v>
+        <v>0.43204684069525</v>
       </c>
       <c r="C25">
-        <v>0.2031219459877462</v>
+        <v>0.07585044468443414</v>
       </c>
       <c r="D25">
-        <v>0.05813965245419439</v>
+        <v>0.02880398899296921</v>
       </c>
       <c r="E25">
-        <v>1.679716579645884</v>
+        <v>0.4944351383057182</v>
       </c>
       <c r="F25">
-        <v>0.5994047497525372</v>
+        <v>0.715345636987621</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.391934608331496</v>
+        <v>0.4273898620322711</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.693200545200909</v>
+        <v>2.422517752854048</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_210/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_210/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3692786862235664</v>
+        <v>1.090177988594917</v>
       </c>
       <c r="C2">
-        <v>0.06750128626747198</v>
+        <v>0.1773379547710903</v>
       </c>
       <c r="D2">
-        <v>0.02643641156462451</v>
+        <v>0.05168449439577927</v>
       </c>
       <c r="E2">
-        <v>0.4159123285805748</v>
+        <v>1.383532550445011</v>
       </c>
       <c r="F2">
-        <v>0.709949118744241</v>
+        <v>0.5450687678099442</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3603870442761377</v>
+        <v>1.170672924044226</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.425853481379022</v>
+        <v>1.588286861067644</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3267623426023647</v>
+        <v>0.947230737358808</v>
       </c>
       <c r="C3">
-        <v>0.06179291441247869</v>
+        <v>0.1599092110028693</v>
       </c>
       <c r="D3">
-        <v>0.02481443763230118</v>
+        <v>0.04728767669352152</v>
       </c>
       <c r="E3">
-        <v>0.3628992592812068</v>
+        <v>1.188390346628822</v>
       </c>
       <c r="F3">
-        <v>0.7073304550515829</v>
+        <v>0.5112503398840786</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3148674128965183</v>
+        <v>1.021451238525998</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.431571157312817</v>
+        <v>1.527004014964234</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3006692369606014</v>
+        <v>0.8597566364696831</v>
       </c>
       <c r="C4">
-        <v>0.05826342446459876</v>
+        <v>0.1492139293715411</v>
       </c>
       <c r="D4">
-        <v>0.02381009723379179</v>
+        <v>0.04457584564111272</v>
       </c>
       <c r="E4">
-        <v>0.3304359795849052</v>
+        <v>1.070720680900678</v>
       </c>
       <c r="F4">
-        <v>0.7062327119440397</v>
+        <v>0.491806393687483</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2868644905347253</v>
+        <v>0.9300430821374164</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.436779632266507</v>
+        <v>1.493716962853</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2900395173022901</v>
+        <v>0.8241655912127896</v>
       </c>
       <c r="C5">
-        <v>0.05681901421840507</v>
+        <v>0.1448548836049639</v>
       </c>
       <c r="D5">
-        <v>0.02339872983098701</v>
+        <v>0.0434675449515538</v>
       </c>
       <c r="E5">
-        <v>0.3172271342782267</v>
+        <v>1.023228034671831</v>
       </c>
       <c r="F5">
-        <v>0.7059133797577957</v>
+        <v>0.4841926316125793</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2754399761406887</v>
+        <v>0.892828115146898</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.43932806415944</v>
+        <v>1.481174528039531</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2882746793737851</v>
+        <v>0.8182585358702852</v>
       </c>
       <c r="C6">
-        <v>0.05657880328006115</v>
+        <v>0.1441309696683959</v>
       </c>
       <c r="D6">
-        <v>0.0233302972788465</v>
+        <v>0.04328331477418601</v>
       </c>
       <c r="E6">
-        <v>0.3150349875119076</v>
+        <v>1.0153673626901</v>
       </c>
       <c r="F6">
-        <v>0.7058680783579092</v>
+        <v>0.482946457806392</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2735421652579078</v>
+        <v>0.8866501483927607</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.439776925921734</v>
+        <v>1.479151670006644</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3005258664248061</v>
+        <v>0.8592764433124103</v>
       </c>
       <c r="C7">
-        <v>0.05824396932865739</v>
+        <v>0.1491551470299868</v>
       </c>
       <c r="D7">
-        <v>0.02380455781108282</v>
+        <v>0.04456091187965683</v>
       </c>
       <c r="E7">
-        <v>0.3302577608487525</v>
+        <v>1.070078424171257</v>
       </c>
       <c r="F7">
-        <v>0.7062278873820702</v>
+        <v>0.491702485909066</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2867104680245234</v>
+        <v>0.9295410725701743</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.436812278036115</v>
+        <v>1.493543760202215</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.354616758735574</v>
+        <v>1.040816373194303</v>
       </c>
       <c r="C8">
-        <v>0.06553816001884627</v>
+        <v>0.171325916910817</v>
       </c>
       <c r="D8">
-        <v>0.02587892582811691</v>
+        <v>0.05017090080011855</v>
       </c>
       <c r="E8">
-        <v>0.3976143566367512</v>
+        <v>1.315750339845749</v>
       </c>
       <c r="F8">
-        <v>0.7089401619904834</v>
+        <v>0.5331201906298659</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3447032443233979</v>
+        <v>1.119164625695561</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.427471956428946</v>
+        <v>1.566212497626054</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4607732036890297</v>
+        <v>1.400113579760443</v>
       </c>
       <c r="C9">
-        <v>0.07964579805047833</v>
+        <v>0.2149591222688372</v>
       </c>
       <c r="D9">
-        <v>0.02987854830372783</v>
+        <v>0.06108371841115456</v>
       </c>
       <c r="E9">
-        <v>0.5304715718472153</v>
+        <v>1.818636572995302</v>
       </c>
       <c r="F9">
-        <v>0.7183200586844123</v>
+        <v>0.6259043675830185</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4579889468427041</v>
+        <v>1.49368302974392</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.422674350482225</v>
+        <v>1.746529387937699</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5388102127713523</v>
+        <v>1.667560529698363</v>
       </c>
       <c r="C10">
-        <v>0.08988985053686349</v>
+        <v>0.2472816510896223</v>
       </c>
       <c r="D10">
-        <v>0.03277412581027761</v>
+        <v>0.06906119344576922</v>
       </c>
       <c r="E10">
-        <v>0.6286731617452972</v>
+        <v>2.207355954901473</v>
       </c>
       <c r="F10">
-        <v>0.7277079534868562</v>
+        <v>0.702764360068258</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.5409453036401999</v>
+        <v>1.771958412994081</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.42746075108019</v>
+        <v>1.907167000527267</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5743197598488052</v>
+        <v>1.790345013877868</v>
       </c>
       <c r="C11">
-        <v>0.09452372209362636</v>
+        <v>0.262086611025623</v>
       </c>
       <c r="D11">
-        <v>0.03408180682868789</v>
+        <v>0.07268517221632464</v>
       </c>
       <c r="E11">
-        <v>0.6735028481930954</v>
+        <v>2.390014085200562</v>
       </c>
       <c r="F11">
-        <v>0.7325254296818002</v>
+        <v>0.7400218321189413</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.5786236393822719</v>
+        <v>1.899601012973505</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.431458261238816</v>
+        <v>1.987622585369763</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5877674948822857</v>
+        <v>1.837034686546218</v>
       </c>
       <c r="C12">
-        <v>0.09627464524049856</v>
+        <v>0.2677114307984283</v>
       </c>
       <c r="D12">
-        <v>0.03457559308593261</v>
+        <v>0.07405707460434741</v>
       </c>
       <c r="E12">
-        <v>0.6905033027698551</v>
+        <v>2.460177519939677</v>
       </c>
       <c r="F12">
-        <v>0.7344286564716498</v>
+        <v>0.754497512360814</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.5928827030608659</v>
+        <v>1.948121512383153</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.433234931645643</v>
+        <v>2.01926780996115</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5848712448264166</v>
+        <v>1.826970054094289</v>
       </c>
       <c r="C13">
-        <v>0.09589772354327408</v>
+        <v>0.2664991346444907</v>
       </c>
       <c r="D13">
-        <v>0.03446931036066303</v>
+        <v>0.07376162436906242</v>
       </c>
       <c r="E13">
-        <v>0.6868408354261533</v>
+        <v>2.445019607939614</v>
       </c>
       <c r="F13">
-        <v>0.7340152460770497</v>
+        <v>0.7513629557299168</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.5898121613913361</v>
+        <v>1.937662955038803</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.432840582747644</v>
+        <v>2.012398039735245</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5754260946170007</v>
+        <v>1.794182117812397</v>
       </c>
       <c r="C14">
-        <v>0.09466784853978538</v>
+        <v>0.262548973311155</v>
       </c>
       <c r="D14">
-        <v>0.03412245925356672</v>
+        <v>0.07279804601138551</v>
       </c>
       <c r="E14">
-        <v>0.6749009858912558</v>
+        <v>2.395765565060032</v>
       </c>
       <c r="F14">
-        <v>0.7326804251625276</v>
+        <v>0.7412051712878025</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.579796922035996</v>
+        <v>1.903588911308873</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.431599153391147</v>
+        <v>1.990201725859862</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5696407906201557</v>
+        <v>1.774124828747546</v>
       </c>
       <c r="C15">
-        <v>0.09391401501758878</v>
+        <v>0.2601319197408003</v>
       </c>
       <c r="D15">
-        <v>0.03390981908312796</v>
+        <v>0.07220778132982275</v>
       </c>
       <c r="E15">
-        <v>0.6675907181106595</v>
+        <v>2.365730592205821</v>
       </c>
       <c r="F15">
-        <v>0.7318731001349192</v>
+        <v>0.7350322100736122</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.5736611264519524</v>
+        <v>1.882742723875481</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.430873014034717</v>
+        <v>1.976762989560228</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5364897484143967</v>
+        <v>1.659561554011219</v>
       </c>
       <c r="C16">
-        <v>0.08958648412581738</v>
+        <v>0.2463164766390804</v>
       </c>
       <c r="D16">
-        <v>0.03268847110454232</v>
+        <v>0.06882428197526025</v>
       </c>
       <c r="E16">
-        <v>0.6257467554810603</v>
+        <v>2.195549026699481</v>
       </c>
       <c r="F16">
-        <v>0.7274041513733636</v>
+        <v>0.7003787516725311</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.5384817130795625</v>
+        <v>1.763640657592248</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.427236229955895</v>
+        <v>1.902067301679722</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5161549529779563</v>
+        <v>1.589590117687152</v>
       </c>
       <c r="C17">
-        <v>0.0869249336540463</v>
+        <v>0.2378697531959801</v>
       </c>
       <c r="D17">
-        <v>0.03193674841050864</v>
+        <v>0.06674753393936328</v>
       </c>
       <c r="E17">
-        <v>0.6001184060109495</v>
+        <v>2.092746072251515</v>
       </c>
       <c r="F17">
-        <v>0.7248028866342366</v>
+        <v>0.6797327904521069</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.5168848815783917</v>
+        <v>1.690868047767736</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.425472192731064</v>
+        <v>1.858213982831984</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5044598935531042</v>
+        <v>1.549447827296518</v>
       </c>
       <c r="C18">
-        <v>0.08539161750438495</v>
+        <v>0.2330206931134029</v>
       </c>
       <c r="D18">
-        <v>0.03150348220756172</v>
+        <v>0.0655525513300077</v>
       </c>
       <c r="E18">
-        <v>0.5853923531771414</v>
+        <v>2.034154566969931</v>
       </c>
       <c r="F18">
-        <v>0.7233581637361084</v>
+        <v>0.6680712153949173</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.5044574342174997</v>
+        <v>1.649108150543896</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.424628816657815</v>
+        <v>1.833677753979089</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.500500327919184</v>
+        <v>1.535873161203142</v>
       </c>
       <c r="C19">
-        <v>0.08487204175072804</v>
+        <v>0.2313803643478565</v>
       </c>
       <c r="D19">
-        <v>0.03135663299388369</v>
+        <v>0.0651478576175748</v>
       </c>
       <c r="E19">
-        <v>0.5804088339548485</v>
+        <v>2.014404445572069</v>
       </c>
       <c r="F19">
-        <v>0.7228778334412453</v>
+        <v>0.6641583868587162</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.5002487790344503</v>
+        <v>1.634984658675478</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.424372641221396</v>
+        <v>1.825484829002079</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5183195285642057</v>
+        <v>1.597027766341114</v>
       </c>
       <c r="C20">
-        <v>0.0872085155361475</v>
+        <v>0.2387679346219187</v>
       </c>
       <c r="D20">
-        <v>0.0320168634676179</v>
+        <v>0.06696865616720515</v>
       </c>
       <c r="E20">
-        <v>0.6028450535715848</v>
+        <v>2.10363286630421</v>
       </c>
       <c r="F20">
-        <v>0.7250744679569721</v>
+        <v>0.6819082399824623</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.5191844757123363</v>
+        <v>1.698604547236158</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.425642245181791</v>
+        <v>1.862810326463318</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5782003392402828</v>
+        <v>1.803807192246694</v>
       </c>
       <c r="C21">
-        <v>0.09502919684963729</v>
+        <v>0.263708695613218</v>
       </c>
       <c r="D21">
-        <v>0.03422437620510976</v>
+        <v>0.07308108114654033</v>
       </c>
       <c r="E21">
-        <v>0.6784073317457597</v>
+        <v>2.410204321721864</v>
       </c>
       <c r="F21">
-        <v>0.7330703491592914</v>
+        <v>0.7441784805873795</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.5827388856738764</v>
+        <v>1.913591978266339</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.431956646954205</v>
+        <v>1.996688345919722</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6173417845361655</v>
+        <v>1.940097007773574</v>
       </c>
       <c r="C22">
-        <v>0.1001181529369148</v>
+        <v>0.2801189436476932</v>
       </c>
       <c r="D22">
-        <v>0.03565891356750939</v>
+        <v>0.07707362347742475</v>
       </c>
       <c r="E22">
-        <v>0.7279348686650167</v>
+        <v>2.616453039377689</v>
       </c>
       <c r="F22">
-        <v>0.7387564645732709</v>
+        <v>0.7870354071285135</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.6242232693229539</v>
+        <v>2.055195263024245</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.437616399496335</v>
+        <v>2.091117503192464</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5964508569768157</v>
+        <v>1.867239921487311</v>
       </c>
       <c r="C23">
-        <v>0.09740414103174544</v>
+        <v>0.2713489941927207</v>
       </c>
       <c r="D23">
-        <v>0.03489403523903434</v>
+        <v>0.07494282826937138</v>
       </c>
       <c r="E23">
-        <v>0.7014873838633804</v>
+        <v>2.505778239244734</v>
       </c>
       <c r="F23">
-        <v>0.7356794526076555</v>
+        <v>0.7639509282682297</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.6020871807872368</v>
+        <v>1.979506585772299</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.434455034505817</v>
+        <v>2.040042695033662</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5173409373524294</v>
+        <v>1.593664942363233</v>
       </c>
       <c r="C24">
-        <v>0.08708031799307037</v>
+        <v>0.2383618450583498</v>
       </c>
       <c r="D24">
-        <v>0.03198064684463731</v>
+        <v>0.06686869004646923</v>
       </c>
       <c r="E24">
-        <v>0.6016123113793128</v>
+        <v>2.09870936575922</v>
       </c>
       <c r="F24">
-        <v>0.724951527886347</v>
+        <v>0.6809240739524824</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.5181448638791721</v>
+        <v>1.695106635219418</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.425564832524003</v>
+        <v>1.86073022378082</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.43204684069525</v>
+        <v>1.30241806237018</v>
       </c>
       <c r="C25">
-        <v>0.07585044468443414</v>
+        <v>0.2031219459877605</v>
       </c>
       <c r="D25">
-        <v>0.02880398899296921</v>
+        <v>0.05813965245414465</v>
       </c>
       <c r="E25">
-        <v>0.4944351383057182</v>
+        <v>1.679716579645856</v>
       </c>
       <c r="F25">
-        <v>0.715345636987621</v>
+        <v>0.5994047497525301</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4273898620322711</v>
+        <v>1.391934608331496</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.422517752854048</v>
+        <v>1.693200545200938</v>
       </c>
     </row>
   </sheetData>
